--- a/medicine/Enfance/Olivier_Daniel/Olivier_Daniel.xlsx
+++ b/medicine/Enfance/Olivier_Daniel/Olivier_Daniel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Daniel est un écrivain français né le 16 novembre 1952 à Neuilly-sur-Seine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scénariste et écrivain, il est l’auteur d’une quinzaine de scénarios de fiction, pour des grandes entreprises et pour le cinéma.
 Chez Hatier, il est l’auteur de la série Baptiste et Clara et de la série Les imbattables, romans pour les enfants de 7 à 12 ans.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Collection Mini Albums Hatier :- En voiture Ticou
 - Ticou cherche son doudou
